--- a/Product Manufacturing Information/BILL OF MATERIALS/PMI USV Shark.xlsx
+++ b/Product Manufacturing Information/BILL OF MATERIALS/PMI USV Shark.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -53,7 +53,100 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>PRODUCT MANUFACTURING INFORMATION</t>
+    <t>Hull - Part 01</t>
+  </si>
+  <si>
+    <t>Hull - Part 02</t>
+  </si>
+  <si>
+    <t>Hull - Part 03</t>
+  </si>
+  <si>
+    <t>Hull - Part 04</t>
+  </si>
+  <si>
+    <t>Brushless Motor</t>
+  </si>
+  <si>
+    <t>Batteries Lipo</t>
+  </si>
+  <si>
+    <t>Propulsion Frame</t>
+  </si>
+  <si>
+    <t>Servo 9G</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Rudder Axis</t>
+  </si>
+  <si>
+    <t>Rudder</t>
+  </si>
+  <si>
+    <t>Front Cap Hull</t>
+  </si>
+  <si>
+    <t>Rear Cap Hull</t>
+  </si>
+  <si>
+    <t>Rudder Housing</t>
+  </si>
+  <si>
+    <t>Bulkhead - Front</t>
+  </si>
+  <si>
+    <t>Bulkhead - Rear</t>
+  </si>
+  <si>
+    <t>Servo Rudder Axis Hook</t>
+  </si>
+  <si>
+    <t>Servo Hook</t>
+  </si>
+  <si>
+    <t>Rudder Axis Lock</t>
+  </si>
+  <si>
+    <t>Internal Base</t>
+  </si>
+  <si>
+    <t>Receiver (ELRS)</t>
+  </si>
+  <si>
+    <t>Magnet Neodimium</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>D3x2</t>
+  </si>
+  <si>
+    <t>Bolt M3x12</t>
+  </si>
+  <si>
+    <t>Bolt M6x15</t>
+  </si>
+  <si>
+    <t>Bolt M3x20</t>
+  </si>
+  <si>
+    <t>Bolt M3x15</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>WIRE D3</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>PRODUCT MANUFACTURING INFORMATION - USV Shark</t>
   </si>
 </sst>
 </file>
@@ -156,14 +249,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N33"/>
+  <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,28 +550,30 @@
     <col min="2" max="2" width="4.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="48.33203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="14" width="8.88671875" style="2"/>
+    <col min="5" max="7" width="16.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="48.33203125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="16" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -492,307 +587,586 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f>1+B5</f>
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <f t="shared" ref="B7:B19" si="0">1+B6</f>
+        <f t="shared" ref="B7:B30" si="0">1+B6</f>
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
       <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5">
+        <v>15</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F25" s="10"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F26" s="10"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
